--- a/data/timelines_data_v6.xlsx
+++ b/data/timelines_data_v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/r_repositories/rbzd/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucbtds4\R_Repositories\rodent_borne_zoonoses\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8E6175-CF8B-6043-999D-CE77E7BDF808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2818C4B-EF02-47B4-82CA-36F855E37E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2400" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="226">
   <si>
     <t>disease</t>
   </si>
@@ -479,9 +479,6 @@
     <t>Rodent reservoir identified</t>
   </si>
   <si>
-    <t>https://academic.oup.com/jid/article-abstract/169/6/1271/913145</t>
-  </si>
-  <si>
     <t>Aerosolisation of rodent excreta as mechanism of infectiom</t>
   </si>
   <si>
@@ -681,9 +678,6 @@
   </si>
   <si>
     <t>Africa</t>
-  </si>
-  <si>
-    <t>TBEV</t>
   </si>
   <si>
     <t>Europe/Asia</t>
@@ -728,6 +722,21 @@
   </si>
   <si>
     <t>ERNEK E, KOZUCH O, LICHARD M, NOSEK J, ALBRECHT P. EXPERIMENTAL INFECTION OF CLETHRIONOMYS GLAREOLUS AND APODEMUS FLAVICOLLIS WITH TICK-BORNE ENCEPHALITIS VIRUS. Acta Virol. 1963 Sep;7:434-6. PMID: 14062331.</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>MUROVANNYI IL. Epidemiology of hemorrhagic nephroso-nephritis. Zh Mikrobiol Epidemiol Immunobiol. 1945;(6):62-6. PMID: 20984529.</t>
+  </si>
+  <si>
+    <t>Descriptioon of Nethropathia epidemica</t>
+  </si>
+  <si>
+    <t>Tick-borne Encephalitis</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/30108933</t>
   </si>
 </sst>
 </file>
@@ -1077,20 +1086,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1144,13 +1153,13 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>1927</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
         <v>126</v>
@@ -1310,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1530,7 +1539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1550,7 +1559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1604,13 +1613,13 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1630,7 +1639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1670,7 +1679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1724,13 +1733,13 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1744,13 +1753,13 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1770,7 +1779,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1790,7 +1799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -1964,13 +1973,13 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -1981,16 +1990,16 @@
         <v>1894</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="E45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -2030,7 +2039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2050,7 +2059,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +2079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -2147,7 +2156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -2227,7 +2236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -2247,7 +2256,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -2267,7 +2276,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -2278,7 +2287,7 @@
         <v>1970</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
         <v>96</v>
@@ -2287,7 +2296,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -2327,7 +2336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -2347,7 +2356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -2381,13 +2390,13 @@
         <v>32</v>
       </c>
       <c r="E65" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -2401,11 +2410,11 @@
         <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -2425,7 +2434,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>90</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -2465,7 +2474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -2485,7 +2494,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -2496,7 +2505,7 @@
         <v>1972</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="E71" t="s">
         <v>135</v>
@@ -2505,7 +2514,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -2545,7 +2554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -2565,7 +2574,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -2585,7 +2594,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -2605,12 +2614,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" t="s">
         <v>158</v>
-      </c>
-      <c r="B77" t="s">
-        <v>159</v>
       </c>
       <c r="C77">
         <v>-6000</v>
@@ -2619,18 +2628,18 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
         <v>158</v>
-      </c>
-      <c r="B78" t="s">
-        <v>159</v>
       </c>
       <c r="C78">
         <v>-1500</v>
@@ -2639,18 +2648,18 @@
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
         <v>158</v>
-      </c>
-      <c r="B79" t="s">
-        <v>159</v>
       </c>
       <c r="C79">
         <v>-400</v>
@@ -2659,18 +2668,18 @@
         <v>9</v>
       </c>
       <c r="E79" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
         <v>158</v>
-      </c>
-      <c r="B80" t="s">
-        <v>159</v>
       </c>
       <c r="C80">
         <v>1920</v>
@@ -2679,18 +2688,18 @@
         <v>9</v>
       </c>
       <c r="E80" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
         <v>158</v>
-      </c>
-      <c r="B81" t="s">
-        <v>159</v>
       </c>
       <c r="C81">
         <v>1972</v>
@@ -2702,15 +2711,15 @@
         <v>23</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
         <v>158</v>
-      </c>
-      <c r="B82" t="s">
-        <v>159</v>
       </c>
       <c r="C82">
         <v>1977</v>
@@ -2719,18 +2728,18 @@
         <v>9</v>
       </c>
       <c r="E82" t="s">
+        <v>167</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
         <v>158</v>
-      </c>
-      <c r="B83" t="s">
-        <v>159</v>
       </c>
       <c r="C83">
         <v>1851</v>
@@ -2739,18 +2748,18 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
         <v>158</v>
-      </c>
-      <c r="B84" t="s">
-        <v>159</v>
       </c>
       <c r="C84">
         <v>1859</v>
@@ -2759,15 +2768,15 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" t="s">
         <v>158</v>
-      </c>
-      <c r="B85" t="s">
-        <v>159</v>
       </c>
       <c r="C85">
         <v>1915</v>
@@ -2776,18 +2785,18 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" t="s">
         <v>158</v>
-      </c>
-      <c r="B86" t="s">
-        <v>159</v>
       </c>
       <c r="C86">
         <v>1954</v>
@@ -2796,18 +2805,18 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
         <v>158</v>
-      </c>
-      <c r="B87" t="s">
-        <v>159</v>
       </c>
       <c r="C87">
         <v>2014</v>
@@ -2816,18 +2825,18 @@
         <v>32</v>
       </c>
       <c r="E87" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" t="s">
         <v>158</v>
-      </c>
-      <c r="B88" t="s">
-        <v>159</v>
       </c>
       <c r="C88">
         <v>2018</v>
@@ -2836,15 +2845,15 @@
         <v>13</v>
       </c>
       <c r="E88" t="s">
+        <v>178</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F88" s="3" t="s">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>181</v>
       </c>
       <c r="B89" t="s">
         <v>62</v>
@@ -2853,18 +2862,18 @@
         <v>1983</v>
       </c>
       <c r="D89" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
         <v>62</v>
@@ -2882,9 +2891,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" t="s">
         <v>62</v>
@@ -2893,15 +2902,15 @@
         <v>1993</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
         <v>62</v>
@@ -2916,9 +2925,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
         <v>62</v>
@@ -2936,29 +2945,29 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B94" t="s">
         <v>62</v>
       </c>
       <c r="C94">
-        <v>1994</v>
+        <v>1978</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="E94" t="s">
         <v>146</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
         <v>62</v>
@@ -2970,15 +2979,15 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
         <v>62</v>
@@ -2990,15 +2999,15 @@
         <v>32</v>
       </c>
       <c r="E96" t="s">
+        <v>149</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B97" t="s">
         <v>62</v>
@@ -3010,15 +3019,15 @@
         <v>32</v>
       </c>
       <c r="E97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B98" t="s">
         <v>62</v>
@@ -3030,327 +3039,347 @@
         <v>13</v>
       </c>
       <c r="E98" t="s">
+        <v>152</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
         <v>62</v>
       </c>
       <c r="C99">
+        <v>1945</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>223</v>
+      </c>
+      <c r="F99" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100">
         <v>1980</v>
-      </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" t="s">
-        <v>184</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>181</v>
-      </c>
-      <c r="B100" t="s">
-        <v>62</v>
-      </c>
-      <c r="C100">
-        <v>1992</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
-      </c>
-      <c r="F100" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
         <v>62</v>
       </c>
       <c r="C101">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
         <v>62</v>
       </c>
       <c r="C102">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
         <v>62</v>
       </c>
       <c r="C103">
-        <v>1982</v>
+        <v>1996</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
         <v>62</v>
       </c>
       <c r="C104">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B105" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="C105">
-        <v>1958</v>
+        <v>1986</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C106">
-        <v>1970</v>
+        <v>1958</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107">
+        <v>1970</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
       </c>
-      <c r="F106" t="s">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108">
+        <v>1977</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>202</v>
-      </c>
-      <c r="B107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C107">
-        <v>1977</v>
-      </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>202</v>
-      </c>
-      <c r="B108" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109">
         <v>2022</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>208</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>202</v>
-      </c>
-      <c r="B109" t="s">
-        <v>214</v>
-      </c>
-      <c r="C109">
-        <v>2023</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
       </c>
       <c r="E109" t="s">
+        <v>207</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
       </c>
-      <c r="F109" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C110">
-        <v>1986</v>
+        <v>2023</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111">
+        <v>1986</v>
+      </c>
+      <c r="D111" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" t="s">
+        <v>211</v>
+      </c>
+      <c r="F111" t="s">
         <v>212</v>
       </c>
-      <c r="F110" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112">
+        <v>1931</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
       </c>
-      <c r="B111" t="s">
-        <v>216</v>
-      </c>
-      <c r="C111">
-        <v>1931</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" t="s">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113">
+        <v>1939</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>217</v>
+      </c>
+      <c r="F113" t="s">
         <v>218</v>
       </c>
-      <c r="F111" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>215</v>
-      </c>
-      <c r="B112" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112">
-        <v>1939</v>
-      </c>
-      <c r="D112" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" t="s">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114">
+        <v>1937</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
         <v>219</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F114" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115">
+        <v>1963</v>
+      </c>
+      <c r="D115" t="s">
+        <v>221</v>
+      </c>
+      <c r="E115" t="s">
+        <v>174</v>
+      </c>
+      <c r="F115" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>215</v>
-      </c>
-      <c r="B113" t="s">
-        <v>216</v>
-      </c>
-      <c r="C113">
-        <v>1937</v>
-      </c>
-      <c r="D113" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" t="s">
-        <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>215</v>
-      </c>
-      <c r="B114" t="s">
-        <v>216</v>
-      </c>
-      <c r="C114">
-        <v>1963</v>
-      </c>
-      <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" t="s">
-        <v>175</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3365,12 +3394,12 @@
     <hyperlink ref="F73" r:id="rId8" display="https://www.nature.com/articles/srep25280" xr:uid="{B0C93704-3820-4E25-84DD-8FCEFD8C0CD0}"/>
     <hyperlink ref="F74" r:id="rId9" xr:uid="{089EA9DE-A605-4A4F-9C18-13F925DAF593}"/>
     <hyperlink ref="F93" r:id="rId10" xr:uid="{AAEDCFCB-70FA-4F79-8D1B-F5CB7A1D3BAD}"/>
-    <hyperlink ref="F94" r:id="rId11" xr:uid="{8E682BE9-A46D-41E8-8864-3606AD6E6033}"/>
-    <hyperlink ref="F79" r:id="rId12" xr:uid="{D734C99A-AF20-4CAD-93AF-32A78CF21600}"/>
-    <hyperlink ref="F81" r:id="rId13" xr:uid="{A19BA53C-CA99-4294-B272-3E59309538FE}"/>
-    <hyperlink ref="F82" r:id="rId14" xr:uid="{DA022B77-06BE-4407-ABE8-B9468B1EA7B7}"/>
-    <hyperlink ref="F85" r:id="rId15" xr:uid="{0DBEA179-5D12-4C18-AE5E-1CC00B72C03F}"/>
-    <hyperlink ref="F99" r:id="rId16" xr:uid="{0787FCB0-1FE8-4A4A-90D0-F3C3878D224A}"/>
+    <hyperlink ref="F79" r:id="rId11" xr:uid="{D734C99A-AF20-4CAD-93AF-32A78CF21600}"/>
+    <hyperlink ref="F81" r:id="rId12" xr:uid="{A19BA53C-CA99-4294-B272-3E59309538FE}"/>
+    <hyperlink ref="F82" r:id="rId13" xr:uid="{DA022B77-06BE-4407-ABE8-B9468B1EA7B7}"/>
+    <hyperlink ref="F85" r:id="rId14" xr:uid="{0DBEA179-5D12-4C18-AE5E-1CC00B72C03F}"/>
+    <hyperlink ref="F100" r:id="rId15" xr:uid="{0787FCB0-1FE8-4A4A-90D0-F3C3878D224A}"/>
+    <hyperlink ref="F94" r:id="rId16" tooltip="https://www.jstor.org/stable/30108933" xr:uid="{82D2D9DA-38B8-4B3E-B9B7-47E88B523B2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
